--- a/biology/Médecine/Hippolyte_Royer-Collard/Hippolyte_Royer-Collard.xlsx
+++ b/biology/Médecine/Hippolyte_Royer-Collard/Hippolyte_Royer-Collard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippolyte Louis Royer-Collard, né le 28 avril 1802[1] à Paris et mort le 15 décembre 1850 dans la même ville, est un médecin, professeur d'hygiène à la Faculté de médecine de Paris, membre de l'Académie de médecine, associé aux ministères de François Guizot .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippolyte Louis Royer-Collard, né le 28 avril 1802 à Paris et mort le 15 décembre 1850 dans la même ville, est un médecin, professeur d'hygiène à la Faculté de médecine de Paris, membre de l'Académie de médecine, associé aux ministères de François Guizot .
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrégé de médecine, il est difficilement élu[2] avec l'appui du Doyen Orfila, à la chaire d'hygiène de la faculté de Paris en 1838 à la place du baron Desgenettes, démissionnaire pour raison de santé. Il est élu membre de l'Académie de médecine le 8 février 1842 avant d'en être le président en 1848. Il est membre fondateur de la Société anatomique de Paris, assurant le secrétariat du 12 janvier au 15 avril 1826 puis la vice-présidence du 16 avril au 8 juillet 1826. Défenseur de la Révolution de Juillet, il est recruté par Guizot comme chef de la division des Sciences et des affaires médicales (ancienne division des Beaux-Arts) au ministère de l’Instruction publique[3], dès 1830.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrégé de médecine, il est difficilement élu avec l'appui du Doyen Orfila, à la chaire d'hygiène de la faculté de Paris en 1838 à la place du baron Desgenettes, démissionnaire pour raison de santé. Il est élu membre de l'Académie de médecine le 8 février 1842 avant d'en être le président en 1848. Il est membre fondateur de la Société anatomique de Paris, assurant le secrétariat du 12 janvier au 15 avril 1826 puis la vice-présidence du 16 avril au 8 juillet 1826. Défenseur de la Révolution de Juillet, il est recruté par Guizot comme chef de la division des Sciences et des affaires médicales (ancienne division des Beaux-Arts) au ministère de l’Instruction publique, dès 1830.
 Il est le cofondateur (avec Andral, Blandin, Bouillaud , Cazenave,
 Dalmas et Raynaud) du Journal hebdomadaire de la médecine et le directeur du Journal de médecine vétérinaire à partir de 1826. Il collabore au Répertoire d'anatomie. Il meurt paraplégique à la suite d'un probable infarctus médullaire datant de plusieurs années.
-Il est le fils du médecin Antoine-Athanase Royer-Collard (1768-1825) et le neveu de Pierre-Paul Royer-Collard[4].
+Il est le fils du médecin Antoine-Athanase Royer-Collard (1768-1825) et le neveu de Pierre-Paul Royer-Collard.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai d'un système général de zoonomie, ou considérations générales sur l'anatomie, la physiologie, la pathologie et la thérapeutique, [Thèse de Médecine (Cand. Hipp. Royer-Collard), Paris, 1828] Paris, 25 août 1828, in-4 °.
 Considérations générales sur les lois de l'organisme dans l'état de santé et dans l'état de maladie
